--- a/BuildingDrainageConsultant/wwwroot/data/atticaDetailsData.xlsx
+++ b/BuildingDrainageConsultant/wwwroot/data/atticaDetailsData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>Description</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Image Name</t>
+  </si>
+  <si>
+    <t>Авариен, Студен покрив, неизползваем, 1 ниво на оттичане</t>
   </si>
 </sst>
 </file>
@@ -180,8 +183,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E9" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E10" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E10"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Image Name" dataDxfId="4"/>
     <tableColumn id="2" name="Description" dataDxfId="3"/>
@@ -456,16 +459,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -609,6 +612,23 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
